--- a/Team-Data/2014-15/4-3-2014-15.xlsx
+++ b/Team-Data/2014-15/4-3-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -783,13 +850,13 @@
         <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="n">
-        <v>0.447</v>
+        <v>0.453</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -884,19 +951,19 @@
         <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
         <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U3" t="n">
         <v>24.3</v>
@@ -914,7 +981,7 @@
         <v>5.3</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA3" t="n">
         <v>18.7</v>
@@ -923,25 +990,25 @@
         <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
         <v>18</v>
       </c>
-      <c r="AF3" t="n">
-        <v>20</v>
-      </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
       </c>
       <c r="AI3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ3" t="n">
         <v>1</v>
@@ -953,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
         <v>27</v>
@@ -965,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1030,34 +1097,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.467</v>
+        <v>0.459</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J4" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>0.328</v>
@@ -1066,16 +1133,16 @@
         <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R4" t="n">
         <v>10.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T4" t="n">
         <v>42.2</v>
@@ -1084,7 +1151,7 @@
         <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1093,7 +1160,7 @@
         <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
         <v>19.6</v>
@@ -1102,13 +1169,13 @@
         <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1120,16 +1187,16 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>18</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1141,25 +1208,25 @@
         <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP4" t="n">
         <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>12</v>
@@ -1180,7 +1247,7 @@
         <v>18</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
         <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
         <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>18.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1251,7 +1318,7 @@
         <v>23.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
@@ -1263,13 +1330,13 @@
         <v>44.4</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1284,22 +1351,22 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.90000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
@@ -1314,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>25</v>
@@ -1323,13 +1390,13 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1341,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1356,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1394,40 +1461,40 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
         <v>82.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
         <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P6" t="n">
         <v>25.3</v>
@@ -1436,28 +1503,28 @@
         <v>0.785</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S6" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="T6" t="n">
         <v>45.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V6" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.4</v>
@@ -1466,19 +1533,19 @@
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF6" t="n">
         <v>9</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS6" t="n">
         <v>6</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1535,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1544,7 +1611,7 @@
         <v>5</v>
       </c>
       <c r="BB6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1754,7 @@
         <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
@@ -1708,7 +1775,7 @@
         <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW7" t="n">
         <v>19</v>
@@ -1720,13 +1787,13 @@
         <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="n">
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.613</v>
+        <v>0.605</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,16 +1843,16 @@
         <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9</v>
       </c>
       <c r="M8" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.351</v>
@@ -1794,25 +1861,25 @@
         <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1827,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
         <v>104.5</v>
@@ -1836,7 +1903,7 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,16 +1939,16 @@
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
         <v>24</v>
@@ -1896,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" t="n">
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>0.368</v>
+        <v>0.373</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1967,31 +2034,31 @@
         <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N9" t="n">
         <v>0.322</v>
       </c>
       <c r="O9" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
         <v>0.731</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T9" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
@@ -2003,22 +2070,22 @@
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z9" t="n">
         <v>22.7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,10 +2097,10 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2045,28 +2112,28 @@
         <v>14</v>
       </c>
       <c r="AM9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU9" t="n">
         <v>16</v>
@@ -2078,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.382</v>
+        <v>0.387</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="K10" t="n">
         <v>0.428</v>
@@ -2152,16 +2219,16 @@
         <v>25</v>
       </c>
       <c r="N10" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O10" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P10" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
@@ -2170,19 +2237,19 @@
         <v>32.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
       </c>
       <c r="X10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
@@ -2191,16 +2258,16 @@
         <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,16 +2279,16 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>10</v>
@@ -2254,22 +2321,22 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2442,7 +2509,7 @@
         <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" t="n">
         <v>2</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" t="n">
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>0.68</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.441</v>
@@ -2513,19 +2580,19 @@
         <v>11.5</v>
       </c>
       <c r="M12" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P12" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R12" t="n">
         <v>11.9</v>
@@ -2540,7 +2607,7 @@
         <v>22.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W12" t="n">
         <v>9.5</v>
@@ -2549,34 +2616,34 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
         <v>103.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
@@ -2594,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR12" t="n">
         <v>5</v>
@@ -2612,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2627,19 +2694,19 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.434</v>
+        <v>0.427</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2695,37 +2762,37 @@
         <v>7.3</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U13" t="n">
         <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
@@ -2737,28 +2804,28 @@
         <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB13" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2776,16 +2843,16 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>23</v>
@@ -2794,28 +2861,28 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -2943,10 +3010,10 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2964,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3053,10 +3120,10 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
         <v>18.8</v>
@@ -3065,22 +3132,22 @@
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.745</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.5</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3089,7 +3156,7 @@
         <v>13.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>4.6</v>
@@ -3098,19 +3165,19 @@
         <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3140,13 +3207,13 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3155,10 +3222,10 @@
         <v>9</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3167,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
@@ -3176,16 +3243,16 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
         <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3244,28 +3311,28 @@
         <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O16" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P16" t="n">
         <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T16" t="n">
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V16" t="n">
         <v>13.3</v>
@@ -3277,7 +3344,7 @@
         <v>4.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19.1</v>
@@ -3292,16 +3359,16 @@
         <v>3.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF16" t="n">
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -3310,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
         <v>9</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3334,10 +3401,10 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3346,28 +3413,28 @@
         <v>14</v>
       </c>
       <c r="AV16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW16" t="n">
         <v>6</v>
       </c>
-      <c r="AW16" t="n">
-        <v>7</v>
-      </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
         <v>17</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>18</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" t="n">
         <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H18" t="n">
         <v>48.7</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J18" t="n">
         <v>81.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L18" t="n">
         <v>6.7</v>
       </c>
       <c r="M18" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N18" t="n">
         <v>0.365</v>
@@ -3617,19 +3684,19 @@
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R18" t="n">
         <v>10.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V18" t="n">
         <v>16.8</v>
@@ -3644,40 +3711,40 @@
         <v>4.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA18" t="n">
         <v>20.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
         <v>4</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3722,16 +3789,16 @@
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="n">
-        <v>0.211</v>
+        <v>0.213</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J19" t="n">
-        <v>83.3</v>
+        <v>83.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P19" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
         <v>0.773</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
         <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3823,7 +3890,7 @@
         <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3832,13 +3899,13 @@
         <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3877,10 +3944,10 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3892,7 +3959,7 @@
         <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>9</v>
@@ -3904,13 +3971,13 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -3957,55 +4024,55 @@
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P20" t="n">
         <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.6</v>
       </c>
       <c r="U20" t="n">
         <v>22.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>18.7</v>
@@ -4017,16 +4084,16 @@
         <v>99.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4035,10 +4102,10 @@
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
@@ -4053,13 +4120,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
@@ -4068,7 +4135,7 @@
         <v>18</v>
       </c>
       <c r="AT20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
         <v>10</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="n">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J21" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L21" t="n">
         <v>6.8</v>
@@ -4154,31 +4221,31 @@
         <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
         <v>18.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R21" t="n">
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
@@ -4187,10 +4254,10 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA21" t="n">
         <v>18.9</v>
@@ -4202,7 +4269,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4220,10 +4287,10 @@
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>21</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="n">
-        <v>0.553</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,7 +4394,7 @@
         <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
@@ -4336,7 +4403,7 @@
         <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O22" t="n">
         <v>18.7</v>
@@ -4345,7 +4412,7 @@
         <v>24.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
@@ -4360,13 +4427,13 @@
         <v>20.7</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
         <v>7.2</v>
       </c>
       <c r="X22" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y22" t="n">
         <v>4.6</v>
@@ -4378,31 +4445,31 @@
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK22" t="n">
         <v>18</v>
@@ -4441,7 +4508,7 @@
         <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>6</v>
@@ -4456,7 +4523,7 @@
         <v>15</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -4491,52 +4558,52 @@
         <v>75</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="n">
-        <v>0.307</v>
+        <v>0.293</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
         <v>19.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U23" t="n">
         <v>20.8</v>
@@ -4545,13 +4612,13 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
@@ -4560,13 +4627,13 @@
         <v>18</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,10 +4651,10 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,19 +4672,19 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>25</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4641,7 +4708,7 @@
         <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
         <v>6</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>24</v>
       </c>
       <c r="BA24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -4942,16 +5009,16 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4966,10 +5033,10 @@
         <v>20</v>
       </c>
       <c r="AP25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4978,19 +5045,19 @@
         <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>27</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,10 +5066,10 @@
         <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
         <v>26</v>
       </c>
       <c r="G26" t="n">
-        <v>0.653</v>
+        <v>0.649</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J26" t="n">
         <v>85.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
@@ -5067,19 +5134,19 @@
         <v>0.365</v>
       </c>
       <c r="O26" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P26" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="T26" t="n">
         <v>45.9</v>
@@ -5088,10 +5155,10 @@
         <v>22</v>
       </c>
       <c r="V26" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X26" t="n">
         <v>4.6</v>
@@ -5100,28 +5167,28 @@
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
         <v>102.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.347</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5249,52 +5316,52 @@
         <v>0.339</v>
       </c>
       <c r="O27" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="P27" t="n">
         <v>28.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S27" t="n">
         <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA27" t="n">
         <v>23.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
         <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5309,13 +5376,13 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5333,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
         <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5413,10 +5480,10 @@
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.463</v>
@@ -5425,10 +5492,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
@@ -5437,10 +5504,10 @@
         <v>21.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.8</v>
@@ -5449,34 +5516,34 @@
         <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V28" t="n">
         <v>13.9</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5491,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>12</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>12</v>
@@ -5512,10 +5579,10 @@
         <v>14</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,10 +5591,10 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>11</v>
@@ -5542,7 +5609,7 @@
         <v>9</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5580,34 +5647,34 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
         <v>45</v>
       </c>
       <c r="F29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.592</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J29" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L29" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.353</v>
@@ -5619,13 +5686,13 @@
         <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
         <v>41.4</v>
@@ -5634,49 +5701,49 @@
         <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>20.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI29" t="n">
         <v>11</v>
       </c>
-      <c r="AF29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH29" t="n">
+      <c r="AJ29" t="n">
         <v>15</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>12</v>
@@ -5685,22 +5752,22 @@
         <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5718,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5727,13 +5794,13 @@
         <v>17</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
       </c>
       <c r="BC29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
         <v>17</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5876,10 +5943,10 @@
         <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR30" t="n">
         <v>4</v>
@@ -5894,28 +5961,28 @@
         <v>30</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>18</v>
       </c>
       <c r="AX30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
       </c>
       <c r="AZ30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
       </c>
       <c r="BC30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="n">
         <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.463</v>
@@ -5974,16 +6041,16 @@
         <v>16.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5995,10 +6062,10 @@
         <v>44.3</v>
       </c>
       <c r="U31" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="V31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6013,16 +6080,16 @@
         <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB31" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6040,13 +6107,13 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
         <v>27</v>
@@ -6055,10 +6122,10 @@
         <v>9</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ31" t="n">
         <v>23</v>
@@ -6067,7 +6134,7 @@
         <v>20</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6082,13 +6149,13 @@
         <v>20</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2014-15</t>
+          <t>2015-04-03</t>
         </is>
       </c>
     </row>
